--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -759,10 +759,10 @@
         <v>61</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -815,10 +815,10 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>70</v>
